--- a/assets/albero_variabili.xlsx
+++ b/assets/albero_variabili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://resoffice365-my.sharepoint.com/personal/giulia_ciardi_res-it_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{F3319B22-9F03-4256-AEAD-B8DE0C2C3134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA5A1810-0934-48AB-B185-4503D61EEE15}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{F3319B22-9F03-4256-AEAD-B8DE0C2C3134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{639D37B7-C19E-472C-AF79-F9574B574C4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A831ED1-A4F3-433A-8B5E-64EE6710235A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="150">
   <si>
     <t>Nome</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Pesante/Moderata/Leggera</t>
   </si>
   <si>
-    <t>Nessuna/Ex/Lieve/Moderata/Intensa</t>
-  </si>
-  <si>
     <t>Istruzione</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>Vaccini</t>
   </si>
   <si>
-    <t>18-25/26-40/41-50/50-64/65-75/76+</t>
-  </si>
-  <si>
     <t>vacc_pnmccc</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Molto chiara/chiara/intermedia/scura/molto scura</t>
   </si>
   <si>
-    <t>pelle: &lt;= intermedia</t>
-  </si>
-  <si>
     <t>cup_derma</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>cup_odonto</t>
   </si>
   <si>
-    <t>eta_cl: 65-75/76+</t>
-  </si>
-  <si>
     <t>Ultimo dosaggio glicemico</t>
   </si>
   <si>
@@ -315,9 +303,6 @@
     <t>cup_spiro</t>
   </si>
   <si>
-    <t>fam_resp - fumo: &gt;= Moderata</t>
-  </si>
-  <si>
     <t>Ultimo esame delle feci</t>
   </si>
   <si>
@@ -339,9 +324,6 @@
     <t>Poco equilibrata/Regolare/Molto equilibrata</t>
   </si>
   <si>
-    <t>fam_meta - dieta: Poco eq</t>
-  </si>
-  <si>
     <t>Ultima pancolonscopia</t>
   </si>
   <si>
@@ -366,9 +348,6 @@
     <t>Ultimo check-up ginecologico (Eco e/o PapTest)</t>
   </si>
   <si>
-    <t>fam_onco - fumo: &gt;= Moderata</t>
-  </si>
-  <si>
     <t>Salute personale</t>
   </si>
   <si>
@@ -421,13 +400,88 @@
   </si>
   <si>
     <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>18-24/25-39/40-49/50-64/65+</t>
+  </si>
+  <si>
+    <t>eta &gt;= 25</t>
+  </si>
+  <si>
+    <t>eta&gt;= 65</t>
+  </si>
+  <si>
+    <t>eta &gt;=65</t>
+  </si>
+  <si>
+    <t>fam_meta | dieta: Poco eq</t>
+  </si>
+  <si>
+    <t>fam_onco | fumo: &gt;= Moderata | alcol &gt;= Moderata</t>
+  </si>
+  <si>
+    <t>pelle: &lt;= intermedia &amp; eta &gt;= 25</t>
+  </si>
+  <si>
+    <t>(fam_resp | fumo: &gt;= Moderata) &amp; eta &gt;= 25</t>
+  </si>
+  <si>
+    <t>sesso: M/Altro &amp; eta &gt;= 40</t>
+  </si>
+  <si>
+    <t>eta &gt;= 40</t>
+  </si>
+  <si>
+    <t>eta &gt;= 50</t>
+  </si>
+  <si>
+    <t>sesso: F/Altro &gt;= 30</t>
+  </si>
+  <si>
+    <t>Nessuna/Lieve/Ex/Moderata/Intensa</t>
+  </si>
+  <si>
+    <t>fam_meta | dieta: Poco eq | attivita_tl: Leggera &amp; eta &gt;= 25</t>
+  </si>
+  <si>
+    <t>Hai avuto il COVID?</t>
+  </si>
+  <si>
+    <t>Livello sintomi</t>
+  </si>
+  <si>
+    <t>Vaccinazione</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>sintomi</t>
+  </si>
+  <si>
+    <t>vaccino</t>
+  </si>
+  <si>
+    <t>anno_mese_iscrizione</t>
+  </si>
+  <si>
+    <t>Data iscrizione</t>
+  </si>
+  <si>
+    <t>2020_Giu</t>
+  </si>
+  <si>
+    <t>COVID19</t>
+  </si>
+  <si>
+    <t>Lievi/Moderati/Intensi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +501,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -527,7 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -535,24 +595,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,21 +949,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B00AE0-0B12-4D38-AFDC-D3400F416ACF}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="11"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -900,16 +979,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -940,20 +1019,20 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>43</v>
+      <c r="A3" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
+      <c r="D3" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -962,57 +1041,69 @@
         <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>131</v>
+      <c r="A4" s="17"/>
+      <c r="B4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
+      <c r="J4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="26">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
+      <c r="D5" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>34</v>
@@ -1026,7 +1117,7 @@
       <c r="H5" s="4">
         <v>31</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1043,19 +1134,19 @@
         <v>21</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
+      <c r="D6" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1071,15 +1162,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>56</v>
+      <c r="D7" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1095,15 +1186,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
+      <c r="D8" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -1117,37 +1208,37 @@
       <c r="H8" s="5">
         <v>55</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17">
-        <v>1</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="17">
+      <c r="N8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="22">
         <f>H8/(H9/100)^2</f>
         <v>20.202020202020204</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>56</v>
+      <c r="D9" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>13</v>
@@ -1161,52 +1252,52 @@
       <c r="H9" s="6">
         <v>165</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>75</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
@@ -1214,55 +1305,55 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>125</v>
+      <c r="A13" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>56</v>
+      <c r="D13" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
+      <c r="D14" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
@@ -1272,56 +1363,56 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
+      <c r="D15" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>56</v>
+      <c r="D16" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>44</v>
+      <c r="A18" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1329,8 +1420,8 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>56</v>
+      <c r="D18" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -1346,15 +1437,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
+      <c r="D19" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -1370,15 +1461,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
+      <c r="D20" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
@@ -1390,19 +1481,19 @@
         <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>56</v>
+      <c r="D21" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -1414,19 +1505,19 @@
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>56</v>
+      <c r="D22" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1438,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>56</v>
+      <c r="D23" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -1462,244 +1553,244 @@
         <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>59</v>
+      <c r="A25" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>45</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" t="s">
         <v>52</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" t="s">
-        <v>53</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>60</v>
+      <c r="D29" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>61</v>
+      <c r="D30" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>66</v>
+      <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>85</v>
+      <c r="D32" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>85</v>
+      <c r="D33" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>85</v>
+      <c r="D34" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>114</v>
+      <c r="A36" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>78</v>
+      <c r="D36" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -1708,19 +1799,22 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="D37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
@@ -1729,19 +1823,22 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
+      <c r="D38" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
@@ -1750,22 +1847,22 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" t="s">
-        <v>86</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>104</v>
+      <c r="D39" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
@@ -1774,22 +1871,22 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>104</v>
+      <c r="D40" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
@@ -1798,19 +1895,22 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
@@ -1819,19 +1919,22 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
@@ -1840,22 +1943,22 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>96</v>
+      <c r="D43" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
@@ -1864,22 +1967,22 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>23</v>
+      <c r="D44" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
@@ -1888,22 +1991,22 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>61</v>
+      <c r="D45" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
@@ -1912,22 +2015,22 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
-        <v>23</v>
+      <c r="D46" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
@@ -1936,22 +2039,22 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
-        <v>60</v>
+      <c r="D47" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
@@ -1960,22 +2063,22 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="17"/>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>60</v>
+      <c r="D48" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
@@ -1984,22 +2087,22 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>113</v>
+      <c r="D49" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
@@ -2008,14 +2111,89 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A51:A53"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A36:A49"/>
